--- a/mosip_master/xlsx/module_detail.xlsx
+++ b/mosip_master/xlsx/module_detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -155,6 +155,123 @@
   </si>
   <si>
     <t xml:space="preserve">بوابة الويب لخدمات إنشاء معرف البريد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೂರ್ವ ನೋಂದಣಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿಗಾಗಿ ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ಗ್ರಾಹಕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿಗಾಗಿ ಡೆಸ್ಕ್‌ಟಾಪ್ ಅಪ್ಲಿಕೇಶನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ಪ್ರೊಸೆಸರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ನಂತರದ ಪ್ರಕ್ರಿಯೆಗಾಗಿ ಅರ್ಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೂರನೇ ವ್ಯಕ್ತಿಯ ಸೇವಾ ಪೂರೈಕೆದಾರರ ದೃಢೀಕರಣಕ್ಕಾಗಿ ಅರ್ಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID ನಿಯಂತ್ರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಪ್ಲಿಕೇಶನ್‌ಗಳನ್ನು ಕಾನ್ಫಿಗರ್ ಮಾಡಲು ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಿವಾಸ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೋಸ್ಟ್ ID ಜನರೇಷನ್ ಸೇವೆಗಳಿಗಾಗಿ ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पूर्व-पंजीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पूर्व पंजीकरण के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण ग्राहक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण के लिए डेस्कटॉप आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण प्रोसेसर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण के बाद की प्रक्रिया के लिए आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आईडी प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">तृतीय पक्ष सेवा प्रदाता प्रमाणीकरण के लिए आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आईडी नियंत्रण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अनुप्रयोगों को कॉन्फ़िगर करने के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">निवासी पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पोस्ट आईडी जनरेशन सेवाओं के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முன் பதிவு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முன் பதிவுகளுக்கான இணைய போர்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவு வாடிக்கையாளர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவுகளுக்கான டெஸ்க்டாப் பயன்பாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவு செயலி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவுக்குப் பிந்தைய செயல்முறைக்கான விண்ணப்பம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஐடி அங்கீகாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மூன்றாம் தரப்பு சேவை வழங்குநரின் அங்கீகாரத்திற்கான விண்ணப்பம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அடையாளக் கட்டுப்பாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பயன்பாடுகளை உள்ளமைப்பதற்கான இணைய போர்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">குடியுரிமை போர்ட்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">போஸ்ட் ஐடி உருவாக்கும் சேவைகளுக்கான இணைய போர்டல்</t>
   </si>
 </sst>
 </file>
@@ -245,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,6 +387,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,10 +408,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -624,6 +745,312 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/mosip_master/xlsx/module_detail.xlsx
+++ b/mosip_master/xlsx/module_detail.xlsx
@@ -410,7 +410,7 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/mosip_master/xlsx/module_detail.xlsx
+++ b/mosip_master/xlsx/module_detail.xlsx
@@ -1,59 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip-setup\code-base\mosip-data\mosip_master\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7A98A-C6BD-43CF-8193-FB7BAA4E33DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="module_detail" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>Pre-Registration</t>
+  </si>
+  <si>
+    <t>Web portal for pre-registrations</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>Pre-Registration</t>
-  </si>
-  <si>
-    <t>Web portal for pre-registrations</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>Registration Client</t>
   </si>
   <si>
@@ -84,73 +83,509 @@
     <t>Web portal for Post ID generation services</t>
   </si>
   <si>
+    <t>पूर्व-पंजीकरण</t>
+  </si>
+  <si>
+    <t>पूर्व-पंजीकरण के लिए वेब पोर्टल</t>
+  </si>
+  <si>
     <t>hin</t>
   </si>
   <si>
-    <t>पूर्व-पंजीकरण के लिए वेब पोर्टल</t>
+    <t>पंजीकरण ग्राहक</t>
   </si>
   <si>
     <t>पंजीकरण के लिए डेस्कटॉप एप्लिकेशन</t>
   </si>
   <si>
+    <t>पंजीकरण प्रोसेसर</t>
+  </si>
+  <si>
     <t>पंजीकरण के बाद की प्रक्रिया के लिए आवेदन</t>
   </si>
   <si>
+    <t>आईडी प्रमाणीकरण</t>
+  </si>
+  <si>
     <t>तृतीय पक्ष सेवा प्रदाता प्रमाणीकरण के लिए आवेदन</t>
   </si>
   <si>
+    <t>आईडी नियंत्रण</t>
+  </si>
+  <si>
     <t>अनुप्रयोगों को कॉन्फ़िगर करने के लिए वेब पोर्टल</t>
   </si>
   <si>
+    <t>निवासी पोर्टल</t>
+  </si>
+  <si>
     <t>पोस्ट आईडी जनरेशन सेवाओं के लिए वेब पोर्टल</t>
   </si>
   <si>
-    <t>पूर्व-पंजीकरण</t>
-  </si>
-  <si>
-    <t>पंजीकरण ग्राहक</t>
-  </si>
-  <si>
-    <t>पंजीकरण प्रोसेसर</t>
-  </si>
-  <si>
-    <t>आईडी प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t>आईडी नियंत्रण</t>
-  </si>
-  <si>
-    <t>निवासी पोर्टल</t>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>Preinscripción</t>
+  </si>
+  <si>
+    <t>Portal web para preinscripciones</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>Cliente de registro</t>
+  </si>
+  <si>
+    <t>Aplicación de escritorio para Inscripciones</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>Procesador de registro</t>
+  </si>
+  <si>
+    <t>Solicitud de proceso post-registro</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>Autenticación de identificación</t>
+  </si>
+  <si>
+    <t>Solicitud de autenticación de proveedor de servicios de terceros</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>Control de identificación</t>
+  </si>
+  <si>
+    <t>Portal web para configuración de aplicaciones.</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>Portal para residentes</t>
+  </si>
+  <si>
+    <t>Portal web para servicios de generación de Post ID</t>
+  </si>
+  <si>
+    <t>Pré-inscription</t>
+  </si>
+  <si>
+    <t>Portail Web pour les pré-inscriptions</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>Client d'inscription</t>
+  </si>
+  <si>
+    <t>Application de bureau pour les inscriptions</t>
+  </si>
+  <si>
+    <t>Processeur d'enregistrement</t>
+  </si>
+  <si>
+    <t>Demande de processus post-inscription</t>
+  </si>
+  <si>
+    <t>Authentification d'identité</t>
+  </si>
+  <si>
+    <t>Demande d'authentification d'un fournisseur de services tiers</t>
+  </si>
+  <si>
+    <t>Contrôle d'identité</t>
+  </si>
+  <si>
+    <t>Portail Web pour la configuration des applications</t>
+  </si>
+  <si>
+    <t>Portail résident</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,54 +595,552 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -223,7 +1156,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -235,7 +1168,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -249,12 +1182,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -282,31 +1215,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -334,23 +1250,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,54 +1391,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="8.453125" style="1"/>
-    <col min="3" max="3" width="29.08984375" customWidth="1"/>
-    <col min="4" max="4" width="65.81640625" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="1"/>
+    <col min="2" max="2" width="21.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="55.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10001</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -547,223 +1439,427 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10002</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10003</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10004</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10005</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10006</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>10002</v>
       </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10003</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10004</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10005</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10006</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="29" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>